--- a/biology/Botanique/Polygala_timoutou/Polygala_timoutou.xlsx
+++ b/biology/Botanique/Polygala_timoutou/Polygala_timoutou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Polygala timoutou est une espèce de plantes herbacées néotropicale, appartenant à la famille des Polygalaceae.
 Le nom de l'épithète spécifique timoutou provient du toponyme « Timouthou » sur la commune de Montsinéry-Tonnegrande en Guyane.
-Elle est appelée Timutu[1], Timotu, Gelol[2], au Brésil.
+Elle est appelée Timutu, Timotu, Gelol, au Brésil.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Polygala timoutou est une petite herbacée dressé, simple ou parfois ramifiée, haute de 5-20 cm.
 Les feuilles sub-sessiles sont verticillées par 3 ou 4, de forme obovale (celles directement sous l'inflorescence sont opposées ou alternes et de forme oblongue-ovale), et longues de 4-10 mm pour 3-6 mm de large.
@@ -523,7 +537,7 @@
 La corolle est plus courte que les ailes.
 Les pétales latéraux sont inéquilatéraux, obtus, et la crête de la carène porte environ quatre excroissances.
 Son fruit est une capsule de forme orbiculaire à orbiculaire-ovoïde, mesurant 1,2 à 1,5 mm (plus courte que les ailes).
-Les graines sont de forme ovoïde, pubérulentee, longues de 1-1,5 mm, avec un arille mesurant ⅔-¾ de la longueur de la graine, et pourvu de deux diverticules obtus[3],[4],[5].
+Les graines sont de forme ovoïde, pubérulentee, longues de 1-1,5 mm, avec un arille mesurant ⅔-¾ de la longueur de la graine, et pourvu de deux diverticules obtus.
 </t>
         </is>
       </c>
@@ -552,9 +566,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre Polygala timoutou du Costa Rica au Paraguay en passant par le Panama, la Colombie, Trinidad, le Venezuela, le Guyana, le Suriname, la Guyane, le Brésil, et la Bolivie[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre Polygala timoutou du Costa Rica au Paraguay en passant par le Panama, la Colombie, Trinidad, le Venezuela, le Guyana, le Suriname, la Guyane, le Brésil, et la Bolivie.
 </t>
         </is>
       </c>
@@ -583,9 +599,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Polygala timoutou pousse en Guyane dans les savanes sur sol podzolique avec un horizon lessivé blanchi, parfois engorgé jusqu'à la surface, où elle fleurit de Mars à Juillet[5]. On la trouve autour de 100-1 400 m d'altitude au Venezuela[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Polygala timoutou pousse en Guyane dans les savanes sur sol podzolique avec un horizon lessivé blanchi, parfois engorgé jusqu'à la surface, où elle fleurit de Mars à Juillet. On la trouve autour de 100-1 400 m d'altitude au Venezuela.
 </t>
         </is>
       </c>
@@ -614,9 +632,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Polygala timoutou aurait été employée pour ses propriétés vomitives, purgatives, diurétiques et diaphorétiques dans le Rio Grande do Sul au début du XXe siècle[1]. La décoction de la racine serait diurétique, et emménagogue dans la pharmacopée traditionnelle des populations d'Ouro Preto (Minas Gerais)[2]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Polygala timoutou aurait été employée pour ses propriétés vomitives, purgatives, diurétiques et diaphorétiques dans le Rio Grande do Sul au début du XXe siècle. La décoction de la racine serait diurétique, et emménagogue dans la pharmacopée traditionnelle des populations d'Ouro Preto (Minas Gerais)
 </t>
         </is>
       </c>
@@ -645,9 +665,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant pour Polygala timoutou[6] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant pour Polygala timoutou : 
 « POLYGALA (Timoutou) floribus criſtatis, purpuraſcentibus ; foliis lanceolatis. (Tabula 295.)
 Planta annua ; caulem ramoſum, pedalem, trigonum, angulis alatis, è radice fibroſâ emittens. Folia inferiora tria, verticillata, cætera alterna, ovato-lanceolata, glabra, integerrima, ſeſſilia. Flores exigui, in ſpicam denſam,terminalem congeſti, è luteo purpuraſcentes.
 Florebat Aprili.
